--- a/temp_doc/MAPEL - TJKT.xlsx
+++ b/temp_doc/MAPEL - TJKT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A09D2A9-492E-AF4C-A9EE-B0F3C6B03234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50453E7-2AB7-F344-B467-A85CC10B3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id_mapel</t>
   </si>
@@ -47,94 +47,76 @@
     <t>nama_mapel</t>
   </si>
   <si>
-    <t>BAHASA INDONESIA ( X TJKT 1 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X TJKT 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X TJKT 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X TJKT 2 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X TJKT 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X TJKT 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X TJKT 3 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X TJKT 3 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X TJKT 3 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( X TJKT 4 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( X TJKT 4 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( X TJKT 4 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( XI TJKT 1 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( XI TJKT 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( XI TJKT 1 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( XI TJKT 2 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( XI TJKT 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( XI TJKT 2 )</t>
-  </si>
-  <si>
-    <t>BAHASA INDONESIA ( XI TJKT 3 )</t>
-  </si>
-  <si>
-    <t>MATEMTIKA ( XI TJKT 3 )</t>
-  </si>
-  <si>
-    <t>BAHASA INGGRIS ( XI TJKT 3 )</t>
-  </si>
-  <si>
     <t>BAHASA INDONESIA ( XII TJKT 1 )</t>
   </si>
   <si>
-    <t>MATEMTIKA ( XII TJKT 1 )</t>
-  </si>
-  <si>
     <t>BAHASA INGGRIS ( XII TJKT 1 )</t>
   </si>
   <si>
     <t>BAHASA INDONESIA ( XII TJKT 2 )</t>
   </si>
   <si>
-    <t>MATEMTIKA ( XII TJKT 2 )</t>
-  </si>
-  <si>
     <t>BAHASA INGGRIS ( XII TJKT 2 )</t>
   </si>
   <si>
     <t>BAHASA INDONESIA ( XII TJKT 3 )</t>
   </si>
   <si>
-    <t>MATEMTIKA ( XII TJKT 3 )</t>
-  </si>
-  <si>
     <t>BAHASA INGGRIS ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>MATEMATIKA ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>KONSENTRASI KEAHLIAN ( XII TJKT 1 )</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>MATEMATIKA ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>KONSENTRASI KEAHLIAN ( XII TJKT 2 )</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>MATEMATIKA ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN ( XII TJKT 3 )</t>
+  </si>
+  <si>
+    <t>KONSENTRASI KEAHLIAN ( XII TJKT 3 )</t>
   </si>
 </sst>
 </file>
@@ -516,14 +498,14 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -543,10 +525,10 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1">
-        <v>10062526</v>
+        <v>10252526</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -554,10 +536,10 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1">
-        <v>10062526</v>
+        <v>10252526</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -565,10 +547,10 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1">
-        <v>10062526</v>
+        <v>10252526</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -576,10 +558,10 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1">
-        <v>10072526</v>
+        <v>10252526</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -587,10 +569,10 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1">
-        <v>10072526</v>
+        <v>10252526</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -598,10 +580,10 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1">
-        <v>10072526</v>
+        <v>10252526</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -609,10 +591,10 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1">
-        <v>10082526</v>
+        <v>10252526</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -620,10 +602,10 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1">
-        <v>10082526</v>
+        <v>10252526</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -631,10 +613,10 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1">
-        <v>10082526</v>
+        <v>10262526</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -642,10 +624,10 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1">
-        <v>10092526</v>
+        <v>10262526</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -653,10 +635,10 @@
         <v>1011</v>
       </c>
       <c r="B12" s="1">
-        <v>10092526</v>
+        <v>10262526</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -664,10 +646,10 @@
         <v>1012</v>
       </c>
       <c r="B13" s="1">
-        <v>10092526</v>
+        <v>10262526</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -675,10 +657,10 @@
         <v>1013</v>
       </c>
       <c r="B14" s="1">
-        <v>10162526</v>
+        <v>10262526</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -686,10 +668,10 @@
         <v>1014</v>
       </c>
       <c r="B15" s="1">
-        <v>10162526</v>
+        <v>10262526</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -697,10 +679,10 @@
         <v>1015</v>
       </c>
       <c r="B16" s="1">
-        <v>10162526</v>
+        <v>10262526</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -708,10 +690,10 @@
         <v>1016</v>
       </c>
       <c r="B17" s="1">
-        <v>10172526</v>
+        <v>10262526</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -719,10 +701,10 @@
         <v>1017</v>
       </c>
       <c r="B18" s="1">
-        <v>10172526</v>
+        <v>10272526</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -730,10 +712,10 @@
         <v>1018</v>
       </c>
       <c r="B19" s="1">
-        <v>10172526</v>
+        <v>10272526</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -741,10 +723,10 @@
         <v>1019</v>
       </c>
       <c r="B20" s="1">
-        <v>10182526</v>
+        <v>10272526</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -752,10 +734,10 @@
         <v>1020</v>
       </c>
       <c r="B21" s="1">
-        <v>10182526</v>
+        <v>10272526</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -763,10 +745,10 @@
         <v>1021</v>
       </c>
       <c r="B22" s="1">
-        <v>10182526</v>
+        <v>10272526</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.2">
@@ -774,7 +756,7 @@
         <v>1022</v>
       </c>
       <c r="B23" s="1">
-        <v>10252526</v>
+        <v>10272526</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -785,7 +767,7 @@
         <v>1023</v>
       </c>
       <c r="B24" s="1">
-        <v>10252526</v>
+        <v>10272526</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -796,77 +778,29 @@
         <v>1024</v>
       </c>
       <c r="B25" s="1">
-        <v>10252526</v>
+        <v>10272526</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1025</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10262526</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1026</v>
-      </c>
-      <c r="B27" s="1">
-        <v>10262526</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1027</v>
-      </c>
-      <c r="B28" s="1">
-        <v>10262526</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1028</v>
-      </c>
-      <c r="B29" s="1">
-        <v>10272526</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1029</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10272526</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1030</v>
-      </c>
-      <c r="B31" s="1">
-        <v>10272526</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp_doc/MAPEL - TJKT.xlsx
+++ b/temp_doc/MAPEL - TJKT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50453E7-2AB7-F344-B467-A85CC10B3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168BA36-6D78-9E42-88A7-3E127A4A2A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16120" xr2:uid="{F3B5AAF4-EB82-C44B-8005-9A97E3042361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -536,7 +536,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -547,7 +547,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -558,7 +558,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -569,7 +569,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -580,7 +580,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -591,7 +591,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -602,7 +602,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1">
-        <v>10252526</v>
+        <v>1025</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -613,7 +613,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -624,7 +624,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -635,7 +635,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -657,7 +657,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -668,7 +668,7 @@
         <v>1014</v>
       </c>
       <c r="B15" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -679,7 +679,7 @@
         <v>1015</v>
       </c>
       <c r="B16" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
         <v>1016</v>
       </c>
       <c r="B17" s="1">
-        <v>10262526</v>
+        <v>1026</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -701,7 +701,7 @@
         <v>1017</v>
       </c>
       <c r="B18" s="1">
-        <v>10272526</v>
+        <v>1027</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -712,7 +712,7 @@
         <v>1018</v>
       </c>
       <c r="B19" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -723,7 +723,7 @@
         <v>1019</v>
       </c>
       <c r="B20" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -734,7 +734,7 @@
         <v>1020</v>
       </c>
       <c r="B21" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -745,7 +745,7 @@
         <v>1021</v>
       </c>
       <c r="B22" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -756,7 +756,7 @@
         <v>1022</v>
       </c>
       <c r="B23" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -767,7 +767,7 @@
         <v>1023</v>
       </c>
       <c r="B24" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -778,7 +778,7 @@
         <v>1024</v>
       </c>
       <c r="B25" s="1">
-        <v>10272526</v>
+        <v>1026</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
